--- a/pcxzf/pcxzf/wangshun/基层动态.xlsx
+++ b/pcxzf/pcxzf/wangshun/基层动态.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,404 +424,404 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>涵水镇：天然气进村入户“燃起”居民新生活</t>
+          <t>邱家镇：借助“当场天”开展“安全生产月”宣传活动</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>平昌县涵水镇人民政府</t>
+          <t>平昌县邱家镇人民政府</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>党政办</t>
+          <t>任佳利</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>江家口镇：海福特肉牛养殖新篇章——业主+村集体  共筑乡村振兴梦</t>
+          <t>金宝街道：多措并举确保</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平昌县江家口镇人民政府</t>
+          <t>平昌县金宝街道办事处</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>张仁杰</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>岩口镇：消防安全抓在手  “四步走”筑牢火灾防控屏障</t>
+          <t>澌岸镇：多措并举推进第四次全国文物普查工作</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>李袁明</t>
+          <t>澌岸镇  佘欢</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>岩口镇：“三举措”筑牢涉农领域安全防线</t>
+          <t>得胜镇组织开展2024年度基干民兵点验大会</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>王青松</t>
-        </is>
-      </c>
+          <t>得胜镇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>得胜镇：“三强化”抓实“三合一”场所消防安全工作</t>
+          <t>西兴镇:人民调解解民忧</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县西兴镇人民政府</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>冉再一、韩官伦</t>
+          <t>谢强</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>龙岗镇：健全“三项机制”提升基层治理效能</t>
+          <t>灵山镇：织密防汛网 筑牢安全墙</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平昌县龙岗镇人民政府</t>
+          <t>平昌县灵山镇人民政府</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>平昌县龙岗镇人民政府</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>粉壁镇：多举措强力推进地质灾害避险搬迁工作</t>
+          <t>岩口镇：“三抓” 持续保障粮食安全生产</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县岩口镇人民政府</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>刘阳</t>
+          <t>郑川</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>镇龙镇：开展综合应急演练筑牢安全底线</t>
+          <t>得胜镇：深入开展“退役军人最期盼的10件事”大走访</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平昌县镇龙镇人民政府</t>
+          <t>平昌县得胜镇人民政府</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>陈佳</t>
+          <t>周旋</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>邱家镇：组织召开鹿鸣片区安全生产专题会</t>
+          <t>得胜镇：三措施筑牢农村道路“安全线”</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
+          <t>平昌县得胜镇人民政府</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>任佳利</t>
+          <t>岳缘</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>岩口镇：“四道加法”抓好基层防汛工作</t>
+          <t>佛楼镇：“三强化三到位”全力守护历史文脉</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>彭殿钟</t>
+          <t>王小红</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>青云镇：奏响“三步曲”  守护群众养老金</t>
+          <t>点出精气神，验出战斗力——得胜镇组织开展2024年度基干民兵点验大会</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县得胜镇人民政府</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>杜林原</t>
+          <t>周旋</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>社区讲座进校园 共建健康防护墙</t>
+          <t>得胜镇：“三清三拆三治”着力提升人居环境</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平昌县第三小学</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>陈檩</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>西兴镇：小小黄蜀葵  开出致富花</t>
+          <t>青云镇：安全生产“图”上知责，“码”上  行动</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
+          <t>平昌县青云镇人民政府</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>蒲洪均</t>
+          <t>赵涛</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>同州街道：“三举措”扎实开展窨井盖和雨水箅子排查统计工作</t>
+          <t>得胜镇：打好高水平安全“主动仗”、撑起 万家平安“守护伞”</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平昌县同州街道办事处</t>
+          <t>平昌县得胜镇人民政府</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>何国嘉</t>
+          <t>冉再一</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>筑牢“防火墙” 深入排查消防隐患</t>
+          <t>佛头山管委会：2024年庆祝“六一”暨国防教育、应急科普进校园活动</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
+          <t>平昌县佛头山管理委员会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>金宝新区管委会</t>
+          <t>王贤德</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>优化营商环境 助企纾困解难</t>
+          <t>兰草镇：节能减排人人参与，低碳生活从我做起</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>邵森林</t>
+          <t>刘慧</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>澌岸镇：多措并举 筑牢安全生产防线</t>
+          <t>青云镇：小辣椒，托起乡镇振兴大梦想</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县青云镇人民政府</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>澌岸镇  李志宇</t>
+          <t>杨天</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>粉壁镇：织密食品安全网  守护“舌尖安全”</t>
+          <t>兰草镇：“四强化”抓实低保评议工作，筑牢民生保障底线</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>岳瑞</t>
+          <t>王彦舒</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>佛楼镇：扎实开展“三合一”场所消防安全排查整治行动</t>
+          <t>佛楼镇：三强化做好居保认证工作</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -831,754 +831,954 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>张弘</t>
+          <t>朱维举</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>兰草镇：网格“织网”，赋能基层治理新模式</t>
+          <t>鹿鸣小学对标推进国家级节约型公共机构示范单位创建工作</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>刘慧</t>
-        </is>
-      </c>
+          <t>鹿鸣小学</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>粉壁镇举办金银花种植技术现场培训</t>
+          <t>江口街道：全面落实森林防灭火工作</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县江口街道办事处</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>何军</t>
+          <t>蒲竺君</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>江口水乡管理局：“三个坚持”助力集体经济发展</t>
+          <t>望京镇：“三举措”抓好秸秆禁烧工作</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平昌县江口水乡水利风景区建设管理局</t>
+          <t>平昌县望京镇人民政府</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>杜许昌</t>
+          <t>杨镇滔</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>涵水镇：强化“三合一”场所检查   筑牢消防安全防线</t>
+          <t>白衣镇：“三个深入”做实防溺水安全工作</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平昌县涵水镇人民政府</t>
+          <t>平昌县白衣镇人民政府</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>万欣睿</t>
+          <t>刘清平</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>青云镇：以“三镜”助力集体 经济开拓谱新篇</t>
+          <t>板庙镇：演练常态化，安全记心间</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县板庙镇人民政府</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>杨天</t>
+          <t>余星达</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>江口街道：人间最美四月天  喜报传送暖人心</t>
+          <t>澌岸镇：严把建设关 筑牢安全网</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平昌县江口街道办事处</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>张青</t>
+          <t>澌岸镇  王秋悦</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>涵水镇：持续巩固撂荒地治理成效</t>
+          <t>佛楼镇：禁止秸秆焚烧 守护辖区蓝天</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平昌县涵水镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>党政办</t>
+          <t>何俊容</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>澌岸镇：“三个一”筑牢安全底线</t>
+          <t>金宝新区：节能攻坚  从你我做起</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县金宝新区管理委员会</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>澌岸镇 方鑫</t>
+          <t>金宝新区管委会</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>澌岸镇：“四个强化”做好森林防灭火工作</t>
+          <t>兰草镇：守护舌尖安全  不负美好“食”光</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>澌岸镇  佘欢</t>
+          <t>刘慧</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>西兴镇：以培促学提升村级财务工作质效</t>
+          <t>江口水乡管理局：开展2024年防灾减灾宣传活动</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>蒲洪均</t>
+          <t>刘芹</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>涵水镇：多措并举  全力保障春防工作</t>
+          <t>西兴镇：全力以赴做好森林防灭火宣传教育</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平昌县涵水镇人民政府</t>
+          <t>平昌县西兴镇人民政府</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>王述平</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>青云镇：“四深化”严守安全生产底线</t>
+          <t>西兴镇：多措并举保障镇村道路安全</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县西兴镇人民政府</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>杨天</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>笔山镇：三个“落实”抓好春耕生产</t>
+          <t>兰草镇：平安出行不放松  交通安全记心中</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平昌县笔山镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>杜明哲</t>
+          <t>刘慧</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>笔山镇：聚焦场镇治理，美化环境，优化秩序</t>
+          <t>兰草镇：“学讲谈讨”并进 推动党纪学习教育走深走实</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平昌县笔山镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>唐思兵</t>
+          <t>白成</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>金宝街道：履职尽责显担当  人大代表在行动</t>
+          <t>邱家镇：三举措扎实开展校园周边环境综合治理</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平昌县金宝街道办事处</t>
+          <t>平昌县邱家镇人民政府</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
+          <t>邵崟雄</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>笔山司法所：法治护航春耕忙  不误农时不负春</t>
+          <t>兰草镇：强化保密管理 筑牢信息安全</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>笔山司法所</t>
+          <t>兰草镇人民政府</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>张真</t>
+          <t>白成</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>英烈纪念园：清明寄哀思，近5000余人次参与“线上+线下”祭扫活动</t>
+          <t>土垭镇：迈好三大步  把牢安全关</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>平昌县英烈纪念园管理局</t>
+          <t>平昌县土垭镇人民政府</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>王晓莹</t>
+          <t>舒程</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>同州街道：孜孜不怠  久久为功  坚决打赢环境卫生整治持久战</t>
+          <t>江口街道：安全生产月  我们在行动</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>平昌县同州街道办事处</t>
+          <t>平昌县江口街道办事处</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>何国嘉</t>
+          <t>钟凯迪</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>江家口镇：念好“四字诀”  坚决保障道路交通安全</t>
+          <t>青云镇：金银花开  丰收画卷展乡村</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平昌县江家口镇人民政府</t>
+          <t>平昌县青云镇人民政府</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>董强</t>
+          <t>杨天</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>英烈纪念园：开展“红色文化进广场”活动</t>
+          <t>青云镇：党建引领  助力集体经济发展</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平昌县英烈纪念园管理局</t>
+          <t>平昌县青云镇人民政府</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>王晓莹</t>
+          <t>何江</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>兰草镇：整治小井盖，书写大民生</t>
+          <t>元山镇：集中开展“两车”整治  消除道路安全隐患</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县元山镇人民政府</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>谢欣彤</t>
+          <t>徐敏</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>得胜镇：倡导文明祭祀，严防森林火灾</t>
+          <t>元山镇：未雨绸缪“绷紧弦”  筑牢防汛“安全堤”</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县元山镇人民政府</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>赵晓艳</t>
+          <t>徐敏</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>金宝街道：三措施，抓实春耕生产</t>
+          <t>粉壁镇：“三个确保”扎实做好严重精神障碍患者管控工作</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平昌县金宝街道办事处</t>
+          <t>平昌县粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
+          <t>刘云霞</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>江家口镇：采取“1233”机制确保春耕生产有序推进</t>
+          <t>佛楼镇：精准发力、多点协同，共筑反诈防火墙</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平昌县江家口镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>董强</t>
+          <t>向单单</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>油菜喜丰收  田间收割忙</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>数量</t>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>产业办公室</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>平昌县涵水镇人民政府</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4</v>
+          <t>金宝新区：多措并举推动业委会筹备工作</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平昌县金宝新区管理委员会</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>金宝新区管委会</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>江家口镇：念好“三字经”做实消防隐患 排查整治工作</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>平昌县江家口镇人民政府</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>3</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>李智鹏</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>3</v>
+          <t>白衣镇：创新实施安全生产清单制管理</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>魏龙泉</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
+          <t>澌岸镇：壮大村集体经济 夯实乡村振兴根基</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>澌岸镇  王杉文</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>平昌县龙岗镇人民政府</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
+          <t>江口水乡管理局：用“演”避险，以“练”筑防——开展地质灾害应急演练</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>向云春</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4</v>
+          <t>板庙镇：常态管控整治，抓实自建房安全</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平昌县板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>余星达</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>平昌县镇龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
+          <t>粉壁镇：多举措推动保密宣传教育工作走深走实</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>岳瑞</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
+          <t>镇龙镇：56头肉牛进场 强村公司正式投产</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>陈佳</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
+          <t>佛楼镇：抓好“三度”筑牢全民反诈“防火墙”</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>莫勤</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>平昌县第三小学</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
+          <t>澌岸镇：多元投入 常态转运 垃圾清运“有一招”</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>澌岸镇  苟鹏</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
+          <t>兰草镇：三措并举推动教育高质量发展</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>白成</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>平昌县同州街道办事处</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
+          <t>佛楼镇：三举措助推单位内部健康运转</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>孙雨程</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
+          <t>江口水乡管理局：“三强化”严守涉农领域安全生产底线</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>向云春</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>澌岸镇：当好“三大员”，筑牢道路交通安全防线</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>3</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>澌岸镇  佘欢</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
+          <t>灵山镇：筑牢森林“防火墙”，守护青山一片绿</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>李涵</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
+          <t>江口街道：小宁城遗址文旅发展初现“端倪”</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平昌县江口街道办事处</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>邓启福</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>平昌县江口水乡水利风景区建设管理局</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>平昌县江口街道办事处</t>
+          <t>平昌县邱家镇人民政府</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>平昌县笔山镇人民政府</t>
+          <t>平昌县金宝街道办事处</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>平昌县金宝街道办事处</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>笔山司法所</t>
+          <t>得胜镇</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1588,11 +1788,211 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>平昌县英烈纪念园管理局</t>
+          <t>平昌县西兴镇人民政府</t>
         </is>
       </c>
       <c r="B66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>鹿鸣小学</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>平昌县江口街道办事处</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>平昌县望京镇人民政府</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>平昌县板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>平昌县金宝新区管理委员会</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>平昌县元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>平昌县江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
